--- a/Creador de OTs ETESA/excel/PMA2021_Pruebas_Y_Mediciones_VF.xlsx
+++ b/Creador de OTs ETESA/excel/PMA2021_Pruebas_Y_Mediciones_VF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samuel\Desktop\Projects\etesaProject\Creador de OTs ETESA\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0031D05-3E10-48B5-ABB6-AC823DB8E8E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52BA8E0-0714-46CF-AFEC-D2DA221EFF8D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1767" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1770" uniqueCount="190">
   <si>
     <t>Codigo-Mant.</t>
   </si>
@@ -609,6 +609,9 @@
   </si>
   <si>
     <t>STATCOM T4</t>
+  </si>
+  <si>
+    <t>xxxxxxx</t>
   </si>
 </sst>
 </file>
@@ -1326,7 +1329,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1804,6 +1807,10 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -5972,7 +5979,26 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A15:P310" totalsRowShown="0" headerRowDxfId="17" tableBorderDxfId="16">
-  <autoFilter ref="A15:P310" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <autoFilter ref="A15:P310" xr:uid="{00000000-0009-0000-0100-000001000000}">
+    <filterColumn colId="0">
+      <filters blank="1">
+        <filter val="ABRIL"/>
+        <filter val="AGOSTO"/>
+        <filter val="DICIEMBRE"/>
+        <filter val="FEBRERO"/>
+        <filter val="JULIO"/>
+        <filter val="JUNIO"/>
+        <filter val="MARZO"/>
+        <filter val="MAYO"/>
+        <filter val="NOVIEMBRE"/>
+        <filter val="OCTUBRE"/>
+        <filter val="SEPTIEMBRE"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="14">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A19:P53">
     <sortCondition ref="H15:H305"/>
   </sortState>
@@ -6266,8 +6292,8 @@
   </sheetPr>
   <dimension ref="A2:AP1048037"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="20" workbookViewId="0">
-      <selection activeCell="C324" sqref="C324"/>
+    <sheetView tabSelected="1" topLeftCell="C15" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="20" workbookViewId="0">
+      <selection activeCell="L109" sqref="L109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -6350,12 +6376,12 @@
       </c>
     </row>
     <row r="11" spans="1:42" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="143" t="s">
+      <c r="A11" s="144" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="144"/>
-      <c r="C11" s="144"/>
-      <c r="D11" s="145"/>
+      <c r="B11" s="145"/>
+      <c r="C11" s="145"/>
+      <c r="D11" s="146"/>
       <c r="AI11" s="9" t="s">
         <v>21</v>
       </c>
@@ -6364,11 +6390,11 @@
       <c r="A12" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="140" t="s">
+      <c r="B12" s="141" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="141"/>
-      <c r="D12" s="142"/>
+      <c r="C12" s="142"/>
+      <c r="D12" s="143"/>
       <c r="AI12" s="9" t="s">
         <v>23</v>
       </c>
@@ -6479,7 +6505,7 @@
       <c r="AO15" s="13"/>
       <c r="AP15" s="13"/>
     </row>
-    <row r="16" spans="1:42" s="7" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:42" s="7" customFormat="1" ht="21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="31" t="s">
         <v>19</v>
       </c>
@@ -6524,7 +6550,7 @@
       <c r="AO16" s="13"/>
       <c r="AP16" s="13"/>
     </row>
-    <row r="17" spans="1:42" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:42" s="7" customFormat="1" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="31" t="s">
         <v>19</v>
       </c>
@@ -6569,7 +6595,7 @@
       <c r="AO17" s="13"/>
       <c r="AP17" s="13"/>
     </row>
-    <row r="18" spans="1:42" s="7" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:42" s="7" customFormat="1" ht="21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="31" t="s">
         <v>19</v>
       </c>
@@ -6612,7 +6638,7 @@
       <c r="AO18" s="13"/>
       <c r="AP18" s="13"/>
     </row>
-    <row r="19" spans="1:42" s="7" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:42" s="7" customFormat="1" ht="21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="31" t="s">
         <v>19</v>
       </c>
@@ -6659,7 +6685,7 @@
       <c r="AO19" s="13"/>
       <c r="AP19" s="13"/>
     </row>
-    <row r="20" spans="1:42" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:42" s="7" customFormat="1" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="31" t="s">
         <v>19</v>
       </c>
@@ -6704,7 +6730,7 @@
       <c r="AO20" s="13"/>
       <c r="AP20" s="13"/>
     </row>
-    <row r="21" spans="1:42" s="7" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:42" s="7" customFormat="1" ht="21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="31" t="s">
         <v>19</v>
       </c>
@@ -6751,7 +6777,7 @@
       <c r="AO21" s="13"/>
       <c r="AP21" s="13"/>
     </row>
-    <row r="22" spans="1:42" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:42" s="7" customFormat="1" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="31" t="s">
         <v>19</v>
       </c>
@@ -6798,7 +6824,7 @@
       <c r="AO22" s="13"/>
       <c r="AP22" s="13"/>
     </row>
-    <row r="23" spans="1:42" s="32" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:42" s="32" customFormat="1" ht="21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="31" t="s">
         <v>19</v>
       </c>
@@ -6845,7 +6871,7 @@
       <c r="AO23" s="13"/>
       <c r="AP23" s="13"/>
     </row>
-    <row r="24" spans="1:42" s="32" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:42" s="32" customFormat="1" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="31" t="s">
         <v>19</v>
       </c>
@@ -6892,7 +6918,7 @@
       <c r="AO24" s="13"/>
       <c r="AP24" s="13"/>
     </row>
-    <row r="25" spans="1:42" s="32" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:42" s="32" customFormat="1" ht="21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="31" t="s">
         <v>19</v>
       </c>
@@ -6939,7 +6965,7 @@
       <c r="AO25" s="13"/>
       <c r="AP25" s="13"/>
     </row>
-    <row r="26" spans="1:42" s="32" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:42" s="32" customFormat="1" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="31" t="s">
         <v>19</v>
       </c>
@@ -6986,7 +7012,7 @@
       <c r="AO26" s="13"/>
       <c r="AP26" s="13"/>
     </row>
-    <row r="27" spans="1:42" s="32" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:42" s="32" customFormat="1" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="31" t="s">
         <v>19</v>
       </c>
@@ -7035,7 +7061,7 @@
       <c r="AO27" s="30"/>
       <c r="AP27" s="30"/>
     </row>
-    <row r="28" spans="1:42" s="32" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:42" s="32" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="31" t="s">
         <v>19</v>
       </c>
@@ -7082,7 +7108,7 @@
       <c r="AO28" s="30"/>
       <c r="AP28" s="30"/>
     </row>
-    <row r="29" spans="1:42" s="32" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:42" s="32" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="31" t="s">
         <v>19</v>
       </c>
@@ -7127,7 +7153,7 @@
       <c r="AO29" s="30"/>
       <c r="AP29" s="30"/>
     </row>
-    <row r="30" spans="1:42" s="32" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:42" s="32" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="31" t="s">
         <v>19</v>
       </c>
@@ -7172,7 +7198,7 @@
       <c r="AO30" s="30"/>
       <c r="AP30" s="30"/>
     </row>
-    <row r="31" spans="1:42" s="32" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:42" s="32" customFormat="1" ht="21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="31" t="s">
         <v>19</v>
       </c>
@@ -7219,7 +7245,7 @@
       <c r="AO31" s="30"/>
       <c r="AP31" s="30"/>
     </row>
-    <row r="32" spans="1:42" s="32" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:42" s="32" customFormat="1" ht="21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="31" t="s">
         <v>19</v>
       </c>
@@ -7266,7 +7292,7 @@
       <c r="AO32" s="30"/>
       <c r="AP32" s="30"/>
     </row>
-    <row r="33" spans="1:42" s="32" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:42" s="32" customFormat="1" ht="21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="31" t="s">
         <v>19</v>
       </c>
@@ -7311,7 +7337,7 @@
       <c r="AO33" s="30"/>
       <c r="AP33" s="30"/>
     </row>
-    <row r="34" spans="1:42" s="32" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:42" s="32" customFormat="1" ht="21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="31" t="s">
         <v>19</v>
       </c>
@@ -7354,7 +7380,7 @@
       <c r="AO34" s="30"/>
       <c r="AP34" s="30"/>
     </row>
-    <row r="35" spans="1:42" s="32" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:42" s="32" customFormat="1" ht="21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="31" t="s">
         <v>19</v>
       </c>
@@ -7397,7 +7423,7 @@
       <c r="AO35" s="30"/>
       <c r="AP35" s="30"/>
     </row>
-    <row r="36" spans="1:42" s="32" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:42" s="32" customFormat="1" ht="21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="31" t="s">
         <v>19</v>
       </c>
@@ -7442,7 +7468,7 @@
       <c r="AO36" s="30"/>
       <c r="AP36" s="30"/>
     </row>
-    <row r="37" spans="1:42" s="32" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:42" s="32" customFormat="1" ht="21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="31" t="s">
         <v>19</v>
       </c>
@@ -7487,7 +7513,7 @@
       <c r="AO37" s="30"/>
       <c r="AP37" s="30"/>
     </row>
-    <row r="38" spans="1:42" s="32" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:42" s="32" customFormat="1" ht="21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="31" t="s">
         <v>19</v>
       </c>
@@ -7532,7 +7558,7 @@
       <c r="AO38" s="30"/>
       <c r="AP38" s="30"/>
     </row>
-    <row r="39" spans="1:42" s="32" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:42" s="32" customFormat="1" ht="21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="31" t="s">
         <v>19</v>
       </c>
@@ -7577,7 +7603,7 @@
       <c r="AO39" s="30"/>
       <c r="AP39" s="30"/>
     </row>
-    <row r="40" spans="1:42" s="32" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:42" s="32" customFormat="1" ht="21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="31" t="s">
         <v>19</v>
       </c>
@@ -7622,7 +7648,7 @@
       <c r="AO40" s="30"/>
       <c r="AP40" s="30"/>
     </row>
-    <row r="41" spans="1:42" s="32" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:42" s="32" customFormat="1" ht="21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="31" t="s">
         <v>19</v>
       </c>
@@ -7667,7 +7693,7 @@
       <c r="AO41" s="30"/>
       <c r="AP41" s="30"/>
     </row>
-    <row r="42" spans="1:42" s="32" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:42" s="32" customFormat="1" ht="21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="31" t="s">
         <v>19</v>
       </c>
@@ -7712,7 +7738,7 @@
       <c r="AO42" s="30"/>
       <c r="AP42" s="30"/>
     </row>
-    <row r="43" spans="1:42" s="32" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:42" s="32" customFormat="1" ht="21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="31" t="s">
         <v>19</v>
       </c>
@@ -7755,7 +7781,7 @@
       <c r="AO43" s="30"/>
       <c r="AP43" s="30"/>
     </row>
-    <row r="44" spans="1:42" s="32" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:42" s="32" customFormat="1" ht="21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="31" t="s">
         <v>19</v>
       </c>
@@ -7800,7 +7826,7 @@
       <c r="AO44" s="30"/>
       <c r="AP44" s="30"/>
     </row>
-    <row r="45" spans="1:42" s="32" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:42" s="32" customFormat="1" ht="21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="31" t="s">
         <v>19</v>
       </c>
@@ -7843,7 +7869,7 @@
       <c r="AO45" s="30"/>
       <c r="AP45" s="30"/>
     </row>
-    <row r="46" spans="1:42" s="32" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:42" s="32" customFormat="1" ht="21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="31" t="s">
         <v>19</v>
       </c>
@@ -7888,7 +7914,7 @@
       <c r="AO46" s="30"/>
       <c r="AP46" s="30"/>
     </row>
-    <row r="47" spans="1:42" s="32" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:42" s="32" customFormat="1" ht="21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="31" t="s">
         <v>19</v>
       </c>
@@ -7933,7 +7959,7 @@
       <c r="AO47" s="30"/>
       <c r="AP47" s="30"/>
     </row>
-    <row r="48" spans="1:42" s="32" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:42" s="32" customFormat="1" ht="21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="31" t="s">
         <v>19</v>
       </c>
@@ -7976,7 +8002,7 @@
       <c r="AO48" s="30"/>
       <c r="AP48" s="30"/>
     </row>
-    <row r="49" spans="1:42" s="32" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:42" s="32" customFormat="1" ht="21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="31" t="s">
         <v>19</v>
       </c>
@@ -8019,7 +8045,7 @@
       <c r="AO49" s="30"/>
       <c r="AP49" s="30"/>
     </row>
-    <row r="50" spans="1:42" s="32" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:42" s="32" customFormat="1" ht="21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="31" t="s">
         <v>19</v>
       </c>
@@ -8062,7 +8088,7 @@
       <c r="AO50" s="30"/>
       <c r="AP50" s="30"/>
     </row>
-    <row r="51" spans="1:42" s="32" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:42" s="32" customFormat="1" ht="21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="31" t="s">
         <v>19</v>
       </c>
@@ -8105,7 +8131,7 @@
       <c r="AO51" s="30"/>
       <c r="AP51" s="30"/>
     </row>
-    <row r="52" spans="1:42" s="32" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:42" s="32" customFormat="1" ht="21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="31" t="s">
         <v>19</v>
       </c>
@@ -8148,7 +8174,7 @@
       <c r="AO52" s="30"/>
       <c r="AP52" s="30"/>
     </row>
-    <row r="53" spans="1:42" s="32" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:42" s="32" customFormat="1" ht="21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="31" t="s">
         <v>19</v>
       </c>
@@ -8195,7 +8221,7 @@
       <c r="AO53" s="30"/>
       <c r="AP53" s="30"/>
     </row>
-    <row r="54" spans="1:42" s="32" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:42" s="32" customFormat="1" ht="21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="31" t="s">
         <v>20</v>
       </c>
@@ -8227,7 +8253,9 @@
       <c r="L54" s="25"/>
       <c r="M54" s="18"/>
       <c r="N54" s="31"/>
-      <c r="O54" s="20"/>
+      <c r="O54" s="20">
+        <v>1062211</v>
+      </c>
       <c r="P54" s="88">
         <v>1</v>
       </c>
@@ -8238,7 +8266,7 @@
       <c r="AO54" s="30"/>
       <c r="AP54" s="30"/>
     </row>
-    <row r="55" spans="1:42" s="32" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:42" s="32" customFormat="1" ht="21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="31" t="s">
         <v>20</v>
       </c>
@@ -8270,7 +8298,9 @@
       <c r="L55" s="25"/>
       <c r="M55" s="18"/>
       <c r="N55" s="31"/>
-      <c r="O55" s="20"/>
+      <c r="O55" s="20">
+        <v>1062221</v>
+      </c>
       <c r="P55" s="88">
         <v>1</v>
       </c>
@@ -8283,7 +8313,7 @@
       <c r="AO55" s="30"/>
       <c r="AP55" s="30"/>
     </row>
-    <row r="56" spans="1:42" s="32" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:42" s="32" customFormat="1" ht="21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="31" t="s">
         <v>20</v>
       </c>
@@ -8315,7 +8345,9 @@
       <c r="L56" s="25"/>
       <c r="M56" s="18"/>
       <c r="N56" s="31"/>
-      <c r="O56" s="20"/>
+      <c r="O56" s="20">
+        <v>1062223</v>
+      </c>
       <c r="P56" s="88">
         <v>1</v>
       </c>
@@ -8328,7 +8360,7 @@
       <c r="AO56" s="30"/>
       <c r="AP56" s="30"/>
     </row>
-    <row r="57" spans="1:42" s="32" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:42" s="32" customFormat="1" ht="21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="31" t="s">
         <v>20</v>
       </c>
@@ -8360,7 +8392,9 @@
       <c r="L57" s="25"/>
       <c r="M57" s="18"/>
       <c r="N57" s="31"/>
-      <c r="O57" s="20"/>
+      <c r="O57" s="20" t="s">
+        <v>189</v>
+      </c>
       <c r="P57" s="88">
         <v>1</v>
       </c>
@@ -8373,7 +8407,7 @@
       <c r="AO57" s="30"/>
       <c r="AP57" s="30"/>
     </row>
-    <row r="58" spans="1:42" s="32" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:42" s="32" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="31" t="s">
         <v>20</v>
       </c>
@@ -8405,7 +8439,9 @@
       <c r="L58" s="25"/>
       <c r="M58" s="18"/>
       <c r="N58" s="31"/>
-      <c r="O58" s="20"/>
+      <c r="O58" s="20">
+        <v>1062227</v>
+      </c>
       <c r="P58" s="88">
         <v>1</v>
       </c>
@@ -8418,7 +8454,7 @@
       <c r="AO58" s="30"/>
       <c r="AP58" s="30"/>
     </row>
-    <row r="59" spans="1:42" s="32" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:42" s="32" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="31" t="s">
         <v>20</v>
       </c>
@@ -8452,7 +8488,9 @@
       <c r="L59" s="25"/>
       <c r="M59" s="18"/>
       <c r="N59" s="31"/>
-      <c r="O59" s="20"/>
+      <c r="O59" s="20">
+        <v>1062229</v>
+      </c>
       <c r="P59" s="88">
         <v>1</v>
       </c>
@@ -8465,7 +8503,7 @@
       <c r="AO59" s="30"/>
       <c r="AP59" s="30"/>
     </row>
-    <row r="60" spans="1:42" s="32" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:42" s="32" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="31" t="s">
         <v>20</v>
       </c>
@@ -8497,7 +8535,9 @@
       <c r="L60" s="25"/>
       <c r="M60" s="18"/>
       <c r="N60" s="31"/>
-      <c r="O60" s="20"/>
+      <c r="O60" s="20">
+        <v>1062232</v>
+      </c>
       <c r="P60" s="88">
         <v>1</v>
       </c>
@@ -8510,7 +8550,7 @@
       <c r="AO60" s="30"/>
       <c r="AP60" s="30"/>
     </row>
-    <row r="61" spans="1:42" s="32" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:42" s="32" customFormat="1" ht="21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="31" t="s">
         <v>20</v>
       </c>
@@ -8544,7 +8584,9 @@
       <c r="L61" s="25"/>
       <c r="M61" s="18"/>
       <c r="N61" s="31"/>
-      <c r="O61" s="20"/>
+      <c r="O61" s="20" t="s">
+        <v>189</v>
+      </c>
       <c r="P61" s="88">
         <v>1</v>
       </c>
@@ -8557,7 +8599,7 @@
       <c r="AO61" s="30"/>
       <c r="AP61" s="30"/>
     </row>
-    <row r="62" spans="1:42" s="32" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:42" s="32" customFormat="1" ht="21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="31" t="s">
         <v>20</v>
       </c>
@@ -8591,7 +8633,9 @@
       <c r="L62" s="25"/>
       <c r="M62" s="18"/>
       <c r="N62" s="31"/>
-      <c r="O62" s="20"/>
+      <c r="O62" s="20">
+        <v>1062238</v>
+      </c>
       <c r="P62" s="88">
         <v>1</v>
       </c>
@@ -8604,7 +8648,7 @@
       <c r="AO62" s="30"/>
       <c r="AP62" s="30"/>
     </row>
-    <row r="63" spans="1:42" s="32" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:42" s="32" customFormat="1" ht="21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="31" t="s">
         <v>20</v>
       </c>
@@ -8636,7 +8680,9 @@
       <c r="L63" s="25"/>
       <c r="M63" s="18"/>
       <c r="N63" s="19"/>
-      <c r="O63" s="20"/>
+      <c r="O63" s="20" t="s">
+        <v>189</v>
+      </c>
       <c r="P63" s="24">
         <v>1</v>
       </c>
@@ -8647,7 +8693,7 @@
       <c r="AO63" s="30"/>
       <c r="AP63" s="30"/>
     </row>
-    <row r="64" spans="1:42" s="32" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:42" s="32" customFormat="1" ht="21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="31" t="s">
         <v>20</v>
       </c>
@@ -8679,7 +8725,9 @@
       <c r="L64" s="25"/>
       <c r="M64" s="18"/>
       <c r="N64" s="31"/>
-      <c r="O64" s="20"/>
+      <c r="O64" s="20">
+        <v>1062241</v>
+      </c>
       <c r="P64" s="88">
         <v>1</v>
       </c>
@@ -8690,7 +8738,7 @@
       <c r="AO64" s="30"/>
       <c r="AP64" s="30"/>
     </row>
-    <row r="65" spans="1:42" s="32" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:42" s="32" customFormat="1" ht="21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="31" t="s">
         <v>20</v>
       </c>
@@ -8735,7 +8783,7 @@
       <c r="AO65" s="30"/>
       <c r="AP65" s="30"/>
     </row>
-    <row r="66" spans="1:42" s="32" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:42" s="32" customFormat="1" ht="21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="31" t="s">
         <v>20</v>
       </c>
@@ -8767,7 +8815,9 @@
       <c r="L66" s="25"/>
       <c r="M66" s="18"/>
       <c r="N66" s="31"/>
-      <c r="O66" s="20"/>
+      <c r="O66" s="20">
+        <v>1062244</v>
+      </c>
       <c r="P66" s="88">
         <v>1</v>
       </c>
@@ -8778,7 +8828,7 @@
       <c r="AO66" s="30"/>
       <c r="AP66" s="30"/>
     </row>
-    <row r="67" spans="1:42" s="32" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:42" s="32" customFormat="1" ht="21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="31" t="s">
         <v>20</v>
       </c>
@@ -8823,7 +8873,7 @@
       <c r="AO67" s="30"/>
       <c r="AP67" s="30"/>
     </row>
-    <row r="68" spans="1:42" s="32" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:42" s="32" customFormat="1" ht="21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="31" t="s">
         <v>20</v>
       </c>
@@ -8855,7 +8905,9 @@
       <c r="L68" s="25"/>
       <c r="M68" s="18"/>
       <c r="N68" s="31"/>
-      <c r="O68" s="20"/>
+      <c r="O68" s="20">
+        <v>1062246</v>
+      </c>
       <c r="P68" s="88">
         <v>1</v>
       </c>
@@ -8866,7 +8918,7 @@
       <c r="AO68" s="30"/>
       <c r="AP68" s="30"/>
     </row>
-    <row r="69" spans="1:42" s="32" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:42" s="32" customFormat="1" ht="21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="31" t="s">
         <v>20</v>
       </c>
@@ -8898,7 +8950,9 @@
       <c r="L69" s="25"/>
       <c r="M69" s="18"/>
       <c r="N69" s="31"/>
-      <c r="O69" s="20"/>
+      <c r="O69" s="20">
+        <v>1062251</v>
+      </c>
       <c r="P69" s="88">
         <v>1</v>
       </c>
@@ -8909,7 +8963,7 @@
       <c r="AO69" s="30"/>
       <c r="AP69" s="30"/>
     </row>
-    <row r="70" spans="1:42" s="32" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:42" s="32" customFormat="1" ht="21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="31" t="s">
         <v>20</v>
       </c>
@@ -8941,7 +8995,9 @@
       <c r="L70" s="25"/>
       <c r="M70" s="18"/>
       <c r="N70" s="31"/>
-      <c r="O70" s="20"/>
+      <c r="O70" s="20">
+        <v>1062255</v>
+      </c>
       <c r="P70" s="88">
         <v>1</v>
       </c>
@@ -8952,7 +9008,7 @@
       <c r="AO70" s="30"/>
       <c r="AP70" s="30"/>
     </row>
-    <row r="71" spans="1:42" s="32" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:42" s="32" customFormat="1" ht="21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="31" t="s">
         <v>20</v>
       </c>
@@ -8997,7 +9053,7 @@
       <c r="AO71" s="30"/>
       <c r="AP71" s="30"/>
     </row>
-    <row r="72" spans="1:42" s="32" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:42" s="32" customFormat="1" ht="21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="31" t="s">
         <v>20</v>
       </c>
@@ -9029,7 +9085,9 @@
       <c r="L72" s="25"/>
       <c r="M72" s="18"/>
       <c r="N72" s="31"/>
-      <c r="O72" s="20"/>
+      <c r="O72" s="20">
+        <v>1062257</v>
+      </c>
       <c r="P72" s="88">
         <v>1</v>
       </c>
@@ -9040,7 +9098,7 @@
       <c r="AO72" s="30"/>
       <c r="AP72" s="30"/>
     </row>
-    <row r="73" spans="1:42" s="32" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:42" s="32" customFormat="1" ht="21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="31" t="s">
         <v>20</v>
       </c>
@@ -9085,7 +9143,7 @@
       <c r="AO73" s="30"/>
       <c r="AP73" s="30"/>
     </row>
-    <row r="74" spans="1:42" s="32" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:42" s="32" customFormat="1" ht="21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="31" t="s">
         <v>20</v>
       </c>
@@ -9117,7 +9175,9 @@
       <c r="L74" s="25"/>
       <c r="M74" s="18"/>
       <c r="N74" s="31"/>
-      <c r="O74" s="20"/>
+      <c r="O74" s="20">
+        <v>1062259</v>
+      </c>
       <c r="P74" s="88">
         <v>1</v>
       </c>
@@ -9128,7 +9188,7 @@
       <c r="AO74" s="30"/>
       <c r="AP74" s="30"/>
     </row>
-    <row r="75" spans="1:42" s="32" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:42" s="32" customFormat="1" ht="21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="31" t="s">
         <v>20</v>
       </c>
@@ -9160,7 +9220,9 @@
       <c r="L75" s="25"/>
       <c r="M75" s="18"/>
       <c r="N75" s="31"/>
-      <c r="O75" s="20"/>
+      <c r="O75" s="20">
+        <v>1062261</v>
+      </c>
       <c r="P75" s="88">
         <v>1</v>
       </c>
@@ -9171,7 +9233,7 @@
       <c r="AO75" s="30"/>
       <c r="AP75" s="30"/>
     </row>
-    <row r="76" spans="1:42" s="32" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:42" s="32" customFormat="1" ht="21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="31" t="s">
         <v>20</v>
       </c>
@@ -9203,7 +9265,9 @@
       <c r="L76" s="25"/>
       <c r="M76" s="18"/>
       <c r="N76" s="31"/>
-      <c r="O76" s="20"/>
+      <c r="O76" s="20">
+        <v>1062263</v>
+      </c>
       <c r="P76" s="88">
         <v>1</v>
       </c>
@@ -9214,7 +9278,7 @@
       <c r="AO76" s="30"/>
       <c r="AP76" s="30"/>
     </row>
-    <row r="77" spans="1:42" s="32" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:42" s="32" customFormat="1" ht="21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="31" t="s">
         <v>20</v>
       </c>
@@ -9246,7 +9310,9 @@
       <c r="L77" s="25"/>
       <c r="M77" s="18"/>
       <c r="N77" s="31"/>
-      <c r="O77" s="20"/>
+      <c r="O77" s="20">
+        <v>1062265</v>
+      </c>
       <c r="P77" s="88">
         <v>1</v>
       </c>
@@ -9257,7 +9323,7 @@
       <c r="AO77" s="30"/>
       <c r="AP77" s="30"/>
     </row>
-    <row r="78" spans="1:42" s="32" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:42" s="32" customFormat="1" ht="21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="31" t="s">
         <v>20</v>
       </c>
@@ -9289,7 +9355,9 @@
       <c r="L78" s="25"/>
       <c r="M78" s="18"/>
       <c r="N78" s="31"/>
-      <c r="O78" s="20"/>
+      <c r="O78" s="20">
+        <v>1062267</v>
+      </c>
       <c r="P78" s="88">
         <v>1</v>
       </c>
@@ -9300,7 +9368,7 @@
       <c r="AO78" s="30"/>
       <c r="AP78" s="30"/>
     </row>
-    <row r="79" spans="1:42" s="32" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:42" s="32" customFormat="1" ht="21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="31" t="s">
         <v>20</v>
       </c>
@@ -9332,7 +9400,9 @@
       <c r="L79" s="25"/>
       <c r="M79" s="18"/>
       <c r="N79" s="31"/>
-      <c r="O79" s="20"/>
+      <c r="O79" s="20">
+        <v>1062269</v>
+      </c>
       <c r="P79" s="88">
         <v>1</v>
       </c>
@@ -9343,7 +9413,7 @@
       <c r="AO79" s="30"/>
       <c r="AP79" s="30"/>
     </row>
-    <row r="80" spans="1:42" s="32" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:42" s="32" customFormat="1" ht="21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="31" t="s">
         <v>20</v>
       </c>
@@ -9375,7 +9445,9 @@
       <c r="L80" s="25"/>
       <c r="M80" s="18"/>
       <c r="N80" s="31"/>
-      <c r="O80" s="20"/>
+      <c r="O80" s="20">
+        <v>1062271</v>
+      </c>
       <c r="P80" s="88">
         <v>1</v>
       </c>
@@ -9386,7 +9458,7 @@
       <c r="AO80" s="30"/>
       <c r="AP80" s="30"/>
     </row>
-    <row r="81" spans="1:42" s="32" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:42" s="32" customFormat="1" ht="21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="31" t="s">
         <v>20</v>
       </c>
@@ -9418,7 +9490,9 @@
       <c r="L81" s="25"/>
       <c r="M81" s="18"/>
       <c r="N81" s="31"/>
-      <c r="O81" s="20"/>
+      <c r="O81" s="20">
+        <v>1062273</v>
+      </c>
       <c r="P81" s="88">
         <v>1</v>
       </c>
@@ -9429,7 +9503,7 @@
       <c r="AO81" s="30"/>
       <c r="AP81" s="30"/>
     </row>
-    <row r="82" spans="1:42" s="32" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:42" s="32" customFormat="1" ht="21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="31" t="s">
         <v>20</v>
       </c>
@@ -9463,7 +9537,9 @@
       <c r="L82" s="25"/>
       <c r="M82" s="18"/>
       <c r="N82" s="31"/>
-      <c r="O82" s="20"/>
+      <c r="O82" s="20">
+        <v>1062275</v>
+      </c>
       <c r="P82" s="88">
         <v>1</v>
       </c>
@@ -9506,7 +9582,9 @@
       <c r="L83" s="25"/>
       <c r="M83" s="18"/>
       <c r="N83" s="31"/>
-      <c r="O83" s="20"/>
+      <c r="O83" s="20">
+        <v>1062288</v>
+      </c>
       <c r="P83" s="88">
         <v>1</v>
       </c>
@@ -9549,7 +9627,9 @@
       <c r="L84" s="25"/>
       <c r="M84" s="18"/>
       <c r="N84" s="31"/>
-      <c r="O84" s="20"/>
+      <c r="O84" s="20">
+        <v>1062290</v>
+      </c>
       <c r="P84" s="88">
         <v>1</v>
       </c>
@@ -9592,7 +9672,9 @@
       <c r="L85" s="25"/>
       <c r="M85" s="18"/>
       <c r="N85" s="31"/>
-      <c r="O85" s="20"/>
+      <c r="O85" s="20">
+        <v>1062292</v>
+      </c>
       <c r="P85" s="88">
         <v>1</v>
       </c>
@@ -9635,7 +9717,9 @@
       <c r="L86" s="25"/>
       <c r="M86" s="18"/>
       <c r="N86" s="31"/>
-      <c r="O86" s="20"/>
+      <c r="O86" s="99">
+        <v>1062294</v>
+      </c>
       <c r="P86" s="88">
         <v>1</v>
       </c>
@@ -9678,7 +9762,9 @@
       <c r="L87" s="25"/>
       <c r="M87" s="18"/>
       <c r="N87" s="31"/>
-      <c r="O87" s="20"/>
+      <c r="O87" s="140">
+        <v>1062296</v>
+      </c>
       <c r="P87" s="88">
         <v>1</v>
       </c>
@@ -9721,7 +9807,9 @@
       <c r="L88" s="25"/>
       <c r="M88" s="18"/>
       <c r="N88" s="31"/>
-      <c r="O88" s="20"/>
+      <c r="O88" s="140">
+        <v>1062299</v>
+      </c>
       <c r="P88" s="88">
         <v>1</v>
       </c>
@@ -9764,7 +9852,9 @@
       <c r="L89" s="25"/>
       <c r="M89" s="18"/>
       <c r="N89" s="31"/>
-      <c r="O89" s="20"/>
+      <c r="O89" s="140">
+        <v>1062303</v>
+      </c>
       <c r="P89" s="88">
         <v>1</v>
       </c>
@@ -9807,7 +9897,9 @@
       <c r="L90" s="25"/>
       <c r="M90" s="18"/>
       <c r="N90" s="31"/>
-      <c r="O90" s="20"/>
+      <c r="O90" s="140">
+        <v>1056787</v>
+      </c>
       <c r="P90" s="88">
         <v>1</v>
       </c>
@@ -9818,7 +9910,7 @@
       <c r="AO90" s="30"/>
       <c r="AP90" s="30"/>
     </row>
-    <row r="91" spans="1:42" s="32" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:42" s="32" customFormat="1" ht="21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="31" t="s">
         <v>20</v>
       </c>
@@ -9852,8 +9944,8 @@
       <c r="L91" s="25"/>
       <c r="M91" s="18"/>
       <c r="N91" s="31"/>
-      <c r="O91" s="20">
-        <v>1056787</v>
+      <c r="O91" s="140">
+        <v>1062305</v>
       </c>
       <c r="P91" s="88">
         <v>1</v>
@@ -9897,7 +9989,9 @@
       <c r="L92" s="25"/>
       <c r="M92" s="18"/>
       <c r="N92" s="31"/>
-      <c r="O92" s="20"/>
+      <c r="O92" s="140">
+        <v>1062307</v>
+      </c>
       <c r="P92" s="88">
         <v>1</v>
       </c>
@@ -9940,7 +10034,9 @@
       <c r="L93" s="25"/>
       <c r="M93" s="18"/>
       <c r="N93" s="31"/>
-      <c r="O93" s="20"/>
+      <c r="O93" s="140">
+        <v>1062309</v>
+      </c>
       <c r="P93" s="88">
         <v>1</v>
       </c>
@@ -9983,7 +10079,9 @@
       <c r="L94" s="25"/>
       <c r="M94" s="18"/>
       <c r="N94" s="31"/>
-      <c r="O94" s="20"/>
+      <c r="O94" s="140">
+        <v>1062311</v>
+      </c>
       <c r="P94" s="88">
         <v>1</v>
       </c>
@@ -10028,7 +10126,9 @@
       <c r="L95" s="25"/>
       <c r="M95" s="18"/>
       <c r="N95" s="31"/>
-      <c r="O95" s="20"/>
+      <c r="O95" s="140">
+        <v>1062313</v>
+      </c>
       <c r="P95" s="88">
         <v>1</v>
       </c>
@@ -10071,7 +10171,9 @@
       <c r="L96" s="25"/>
       <c r="M96" s="18"/>
       <c r="N96" s="31"/>
-      <c r="O96" s="20"/>
+      <c r="O96" s="140">
+        <v>1062315</v>
+      </c>
       <c r="P96" s="88">
         <v>1</v>
       </c>
@@ -10116,7 +10218,9 @@
       <c r="L97" s="25"/>
       <c r="M97" s="18"/>
       <c r="N97" s="31"/>
-      <c r="O97" s="20"/>
+      <c r="O97" s="140">
+        <v>1062317</v>
+      </c>
       <c r="P97" s="88">
         <v>1</v>
       </c>
@@ -10159,7 +10263,9 @@
       <c r="L98" s="25"/>
       <c r="M98" s="18"/>
       <c r="N98" s="31"/>
-      <c r="O98" s="20"/>
+      <c r="O98" s="140">
+        <v>1062319</v>
+      </c>
       <c r="P98" s="88">
         <v>1</v>
       </c>
@@ -10204,7 +10310,9 @@
       <c r="L99" s="25"/>
       <c r="M99" s="18"/>
       <c r="N99" s="31"/>
-      <c r="O99" s="20"/>
+      <c r="O99" s="140">
+        <v>1056789</v>
+      </c>
       <c r="P99" s="88">
         <v>1</v>
       </c>
@@ -10215,7 +10323,7 @@
       <c r="AO99" s="30"/>
       <c r="AP99" s="30"/>
     </row>
-    <row r="100" spans="1:42" s="32" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:42" s="32" customFormat="1" ht="21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="31" t="s">
         <v>21</v>
       </c>
@@ -10249,8 +10357,8 @@
       <c r="L100" s="25"/>
       <c r="M100" s="18"/>
       <c r="N100" s="31"/>
-      <c r="O100" s="20">
-        <v>1056789</v>
+      <c r="O100" s="140">
+        <v>1062321</v>
       </c>
       <c r="P100" s="88">
         <v>1</v>
@@ -10296,7 +10404,9 @@
       <c r="L101" s="25"/>
       <c r="M101" s="18"/>
       <c r="N101" s="31"/>
-      <c r="O101" s="20"/>
+      <c r="O101" s="140">
+        <v>1062323</v>
+      </c>
       <c r="P101" s="88">
         <v>1</v>
       </c>
@@ -10341,7 +10451,9 @@
       <c r="L102" s="25"/>
       <c r="M102" s="18"/>
       <c r="N102" s="31"/>
-      <c r="O102" s="20"/>
+      <c r="O102" s="140">
+        <v>1062325</v>
+      </c>
       <c r="P102" s="88">
         <v>1</v>
       </c>
@@ -10386,7 +10498,9 @@
       <c r="L103" s="25"/>
       <c r="M103" s="18"/>
       <c r="N103" s="31"/>
-      <c r="O103" s="20"/>
+      <c r="O103" s="140">
+        <v>1062327</v>
+      </c>
       <c r="P103" s="88">
         <v>1</v>
       </c>
@@ -10431,7 +10545,9 @@
       <c r="L104" s="25"/>
       <c r="M104" s="18"/>
       <c r="N104" s="31"/>
-      <c r="O104" s="20"/>
+      <c r="O104" s="140">
+        <v>1062329</v>
+      </c>
       <c r="P104" s="88">
         <v>1</v>
       </c>
@@ -10476,7 +10592,9 @@
       <c r="L105" s="25"/>
       <c r="M105" s="18"/>
       <c r="N105" s="31"/>
-      <c r="O105" s="20"/>
+      <c r="O105" s="140">
+        <v>1062331</v>
+      </c>
       <c r="P105" s="88">
         <v>1</v>
       </c>
@@ -10521,7 +10639,9 @@
       <c r="L106" s="25"/>
       <c r="M106" s="18"/>
       <c r="N106" s="31"/>
-      <c r="O106" s="20"/>
+      <c r="O106" s="140">
+        <v>1062333</v>
+      </c>
       <c r="P106" s="88">
         <v>1</v>
       </c>
@@ -10566,7 +10686,9 @@
       <c r="L107" s="25"/>
       <c r="M107" s="18"/>
       <c r="N107" s="31"/>
-      <c r="O107" s="20"/>
+      <c r="O107" s="140">
+        <v>1062335</v>
+      </c>
       <c r="P107" s="88">
         <v>1</v>
       </c>
@@ -10611,7 +10733,9 @@
       <c r="L108" s="25"/>
       <c r="M108" s="18"/>
       <c r="N108" s="31"/>
-      <c r="O108" s="20"/>
+      <c r="O108" s="140">
+        <v>1062337</v>
+      </c>
       <c r="P108" s="88">
         <v>1</v>
       </c>
@@ -10656,7 +10780,9 @@
       <c r="L109" s="25"/>
       <c r="M109" s="18"/>
       <c r="N109" s="31"/>
-      <c r="O109" s="20"/>
+      <c r="O109" s="140">
+        <v>1062339</v>
+      </c>
       <c r="P109" s="88">
         <v>1</v>
       </c>
@@ -10707,7 +10833,9 @@
       <c r="L110" s="25"/>
       <c r="M110" s="18"/>
       <c r="N110" s="31"/>
-      <c r="O110" s="20"/>
+      <c r="O110" s="140">
+        <v>1062341</v>
+      </c>
       <c r="P110" s="88">
         <v>1</v>
       </c>
@@ -10758,7 +10886,9 @@
       <c r="L111" s="25"/>
       <c r="M111" s="18"/>
       <c r="N111" s="31"/>
-      <c r="O111" s="20"/>
+      <c r="O111" s="140">
+        <v>1062343</v>
+      </c>
       <c r="P111" s="88">
         <v>1</v>
       </c>
@@ -10803,7 +10933,9 @@
       <c r="L112" s="25"/>
       <c r="M112" s="18"/>
       <c r="N112" s="31"/>
-      <c r="O112" s="20"/>
+      <c r="O112" s="140">
+        <v>1062345</v>
+      </c>
       <c r="P112" s="88">
         <v>1</v>
       </c>
@@ -10848,7 +10980,9 @@
       <c r="L113" s="25"/>
       <c r="M113" s="18"/>
       <c r="N113" s="31"/>
-      <c r="O113" s="20"/>
+      <c r="O113" s="140">
+        <v>1062347</v>
+      </c>
       <c r="P113" s="88">
         <v>1</v>
       </c>
@@ -10893,7 +11027,9 @@
       <c r="L114" s="25"/>
       <c r="M114" s="18"/>
       <c r="N114" s="31"/>
-      <c r="O114" s="20"/>
+      <c r="O114" s="140">
+        <v>1062349</v>
+      </c>
       <c r="P114" s="88">
         <v>1</v>
       </c>
@@ -10938,7 +11074,9 @@
       <c r="L115" s="25"/>
       <c r="M115" s="18"/>
       <c r="N115" s="31"/>
-      <c r="O115" s="20"/>
+      <c r="O115" s="140">
+        <v>1062351</v>
+      </c>
       <c r="P115" s="88">
         <v>1</v>
       </c>
@@ -10983,7 +11121,9 @@
       <c r="L116" s="25"/>
       <c r="M116" s="18"/>
       <c r="N116" s="31"/>
-      <c r="O116" s="20"/>
+      <c r="O116" s="20">
+        <v>1062629</v>
+      </c>
       <c r="P116" s="88">
         <v>1</v>
       </c>
@@ -14421,7 +14561,7 @@
       <c r="AO193" s="1"/>
       <c r="AP193" s="1"/>
     </row>
-    <row r="194" spans="1:42" s="7" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:42" s="7" customFormat="1" ht="21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="31" t="s">
         <v>24</v>
       </c>
@@ -16223,7 +16363,7 @@
       <c r="AO233" s="1"/>
       <c r="AP233" s="1"/>
     </row>
-    <row r="234" spans="1:42" s="87" customFormat="1" ht="36" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:42" s="87" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" s="21" t="s">
         <v>26</v>
       </c>

--- a/Creador de OTs ETESA/excel/PMA2021_Pruebas_Y_Mediciones_VF.xlsx
+++ b/Creador de OTs ETESA/excel/PMA2021_Pruebas_Y_Mediciones_VF.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samuel\Desktop\Projects\etesaProject\Creador de OTs ETESA\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52BA8E0-0714-46CF-AFEC-D2DA221EFF8D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25127000-0F7F-44F9-B27B-E2C2BF2DFDBC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6292,8 +6292,8 @@
   </sheetPr>
   <dimension ref="A2:AP1048037"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C15" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="20" workbookViewId="0">
-      <selection activeCell="L109" sqref="L109"/>
+    <sheetView tabSelected="1" topLeftCell="F99" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="20" workbookViewId="0">
+      <selection activeCell="O126" sqref="O126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -11168,7 +11168,9 @@
       <c r="L117" s="25"/>
       <c r="M117" s="18"/>
       <c r="N117" s="31"/>
-      <c r="O117" s="20"/>
+      <c r="O117" s="20">
+        <v>1063768</v>
+      </c>
       <c r="P117" s="88">
         <v>1</v>
       </c>
@@ -11213,7 +11215,9 @@
       <c r="L118" s="25"/>
       <c r="M118" s="18"/>
       <c r="N118" s="31"/>
-      <c r="O118" s="22"/>
+      <c r="O118" s="22">
+        <v>1063771</v>
+      </c>
       <c r="P118" s="88">
         <v>1</v>
       </c>
@@ -11260,7 +11264,9 @@
       <c r="L119" s="25"/>
       <c r="M119" s="18"/>
       <c r="N119" s="31"/>
-      <c r="O119" s="22"/>
+      <c r="O119" s="22">
+        <v>1063804</v>
+      </c>
       <c r="P119" s="88">
         <v>1</v>
       </c>
@@ -11305,7 +11311,9 @@
       <c r="L120" s="25"/>
       <c r="M120" s="18"/>
       <c r="N120" s="31"/>
-      <c r="O120" s="22"/>
+      <c r="O120" s="22">
+        <v>1063833</v>
+      </c>
       <c r="P120" s="88">
         <v>1</v>
       </c>
@@ -11350,7 +11358,9 @@
       <c r="L121" s="25"/>
       <c r="M121" s="18"/>
       <c r="N121" s="31"/>
-      <c r="O121" s="24"/>
+      <c r="O121" s="24">
+        <v>1063835</v>
+      </c>
       <c r="P121" s="88">
         <v>1</v>
       </c>
@@ -11395,7 +11405,9 @@
       <c r="L122" s="25"/>
       <c r="M122" s="18"/>
       <c r="N122" s="31"/>
-      <c r="O122" s="22"/>
+      <c r="O122" s="22">
+        <v>1063837</v>
+      </c>
       <c r="P122" s="88">
         <v>1</v>
       </c>
@@ -11440,7 +11452,9 @@
       <c r="L123" s="25"/>
       <c r="M123" s="18"/>
       <c r="N123" s="31"/>
-      <c r="O123" s="23"/>
+      <c r="O123" s="23">
+        <v>1063840</v>
+      </c>
       <c r="P123" s="88">
         <v>1</v>
       </c>
@@ -11485,7 +11499,9 @@
       <c r="L124" s="25"/>
       <c r="M124" s="18"/>
       <c r="N124" s="31"/>
-      <c r="O124" s="20"/>
+      <c r="O124" s="20">
+        <v>1063854</v>
+      </c>
       <c r="P124" s="88">
         <v>1</v>
       </c>
@@ -11530,7 +11546,9 @@
       <c r="L125" s="25"/>
       <c r="M125" s="18"/>
       <c r="N125" s="31"/>
-      <c r="O125" s="20"/>
+      <c r="O125" s="20">
+        <v>1063856</v>
+      </c>
       <c r="P125" s="88">
         <v>1</v>
       </c>
@@ -11575,7 +11593,9 @@
       <c r="L126" s="25"/>
       <c r="M126" s="18"/>
       <c r="N126" s="31"/>
-      <c r="O126" s="23"/>
+      <c r="O126" s="23">
+        <v>1063858</v>
+      </c>
       <c r="P126" s="88">
         <v>1</v>
       </c>
@@ -11620,7 +11640,9 @@
       <c r="L127" s="25"/>
       <c r="M127" s="18"/>
       <c r="N127" s="31"/>
-      <c r="O127" s="22"/>
+      <c r="O127" s="22">
+        <v>1063861</v>
+      </c>
       <c r="P127" s="88">
         <v>1</v>
       </c>
@@ -11665,7 +11687,9 @@
       <c r="L128" s="25"/>
       <c r="M128" s="18"/>
       <c r="N128" s="31"/>
-      <c r="O128" s="23"/>
+      <c r="O128" s="23">
+        <v>1063876</v>
+      </c>
       <c r="P128" s="88">
         <v>1</v>
       </c>
@@ -11710,7 +11734,9 @@
       <c r="L129" s="25"/>
       <c r="M129" s="18"/>
       <c r="N129" s="31"/>
-      <c r="O129" s="23"/>
+      <c r="O129" s="23">
+        <v>1063891</v>
+      </c>
       <c r="P129" s="88">
         <v>1</v>
       </c>
@@ -11755,7 +11781,9 @@
       <c r="L130" s="25"/>
       <c r="M130" s="18"/>
       <c r="N130" s="31"/>
-      <c r="O130" s="23"/>
+      <c r="O130" s="23">
+        <v>1063895</v>
+      </c>
       <c r="P130" s="88">
         <v>1</v>
       </c>
@@ -11800,7 +11828,9 @@
       <c r="L131" s="25"/>
       <c r="M131" s="18"/>
       <c r="N131" s="31"/>
-      <c r="O131" s="23"/>
+      <c r="O131" s="23">
+        <v>1063929</v>
+      </c>
       <c r="P131" s="88">
         <v>1</v>
       </c>
@@ -11845,7 +11875,9 @@
       <c r="L132" s="25"/>
       <c r="M132" s="18"/>
       <c r="N132" s="31"/>
-      <c r="O132" s="20"/>
+      <c r="O132" s="20">
+        <v>1063932</v>
+      </c>
       <c r="P132" s="88">
         <v>1</v>
       </c>
@@ -11890,7 +11922,9 @@
       <c r="L133" s="25"/>
       <c r="M133" s="18"/>
       <c r="N133" s="31"/>
-      <c r="O133" s="22"/>
+      <c r="O133" s="22">
+        <v>1063945</v>
+      </c>
       <c r="P133" s="88">
         <v>1</v>
       </c>
@@ -11935,7 +11969,9 @@
       <c r="L134" s="25"/>
       <c r="M134" s="18"/>
       <c r="N134" s="31"/>
-      <c r="O134" s="22"/>
+      <c r="O134" s="22">
+        <v>1063990</v>
+      </c>
       <c r="P134" s="88">
         <v>1</v>
       </c>
@@ -11980,7 +12016,9 @@
       <c r="L135" s="25"/>
       <c r="M135" s="18"/>
       <c r="N135" s="31"/>
-      <c r="O135" s="22"/>
+      <c r="O135" s="22">
+        <v>1063992</v>
+      </c>
       <c r="P135" s="88">
         <v>1</v>
       </c>
@@ -12025,7 +12063,9 @@
       <c r="L136" s="25"/>
       <c r="M136" s="18"/>
       <c r="N136" s="31"/>
-      <c r="O136" s="22"/>
+      <c r="O136" s="22">
+        <v>1063994</v>
+      </c>
       <c r="P136" s="88">
         <v>1</v>
       </c>
@@ -12070,7 +12110,9 @@
       <c r="L137" s="25"/>
       <c r="M137" s="18"/>
       <c r="N137" s="31"/>
-      <c r="O137" s="22"/>
+      <c r="O137" s="22">
+        <v>1063996</v>
+      </c>
       <c r="P137" s="88">
         <v>1</v>
       </c>
@@ -12115,7 +12157,9 @@
       <c r="L138" s="25"/>
       <c r="M138" s="18"/>
       <c r="N138" s="31"/>
-      <c r="O138" s="22"/>
+      <c r="O138" s="22">
+        <v>1063998</v>
+      </c>
       <c r="P138" s="88">
         <v>1</v>
       </c>
@@ -12160,7 +12204,9 @@
       <c r="L139" s="25"/>
       <c r="M139" s="18"/>
       <c r="N139" s="31"/>
-      <c r="O139" s="23"/>
+      <c r="O139" s="23">
+        <v>1064000</v>
+      </c>
       <c r="P139" s="88">
         <v>1</v>
       </c>
@@ -12205,7 +12251,9 @@
       <c r="L140" s="25"/>
       <c r="M140" s="18"/>
       <c r="N140" s="31"/>
-      <c r="O140" s="23"/>
+      <c r="O140" s="23">
+        <v>1064002</v>
+      </c>
       <c r="P140" s="88">
         <v>1</v>
       </c>
@@ -12248,7 +12296,9 @@
       <c r="L141" s="25"/>
       <c r="M141" s="18"/>
       <c r="N141" s="31"/>
-      <c r="O141" s="23"/>
+      <c r="O141" s="23">
+        <v>1064004</v>
+      </c>
       <c r="P141" s="88">
         <v>1</v>
       </c>
@@ -12291,7 +12341,9 @@
       <c r="L142" s="25"/>
       <c r="M142" s="18"/>
       <c r="N142" s="31"/>
-      <c r="O142" s="23"/>
+      <c r="O142" s="23">
+        <v>1064006</v>
+      </c>
       <c r="P142" s="88">
         <v>1</v>
       </c>
@@ -12334,7 +12386,9 @@
       <c r="L143" s="25"/>
       <c r="M143" s="18"/>
       <c r="N143" s="31"/>
-      <c r="O143" s="23"/>
+      <c r="O143" s="23">
+        <v>1064008</v>
+      </c>
       <c r="P143" s="88">
         <v>1</v>
       </c>
@@ -12377,7 +12431,9 @@
       <c r="L144" s="25"/>
       <c r="M144" s="18"/>
       <c r="N144" s="31"/>
-      <c r="O144" s="23"/>
+      <c r="O144" s="23">
+        <v>1064010</v>
+      </c>
       <c r="P144" s="88">
         <v>1</v>
       </c>
@@ -12420,7 +12476,9 @@
       <c r="L145" s="25"/>
       <c r="M145" s="18"/>
       <c r="N145" s="31"/>
-      <c r="O145" s="23"/>
+      <c r="O145" s="23">
+        <v>1064012</v>
+      </c>
       <c r="P145" s="88">
         <v>1</v>
       </c>
@@ -12463,7 +12521,9 @@
       <c r="L146" s="25"/>
       <c r="M146" s="18"/>
       <c r="N146" s="31"/>
-      <c r="O146" s="23"/>
+      <c r="O146" s="23">
+        <v>1064014</v>
+      </c>
       <c r="P146" s="88">
         <v>1</v>
       </c>
